--- a/MOPTIM/Готовое/lab2/lab2.xlsx
+++ b/MOPTIM/Готовое/lab2/lab2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Desktop\МОПТИМ\Готовое\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\bsuir\MOPTIM\Готовое\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -472,6 +472,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -754,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:M37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,14 +952,18 @@
       <c r="A10" s="4">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="37">
         <v>0</v>
       </c>
       <c r="I10" s="4">
@@ -966,25 +971,25 @@
       </c>
       <c r="J10" s="3">
         <f>B2-$O10-J$14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ref="K10:N10" si="0">C2-$O10-K$14</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
+        <v>-2</v>
+      </c>
+      <c r="O10" s="37">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
@@ -996,7 +1001,9 @@
       <c r="U10" s="3">
         <v>20</v>
       </c>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
       <c r="W10" s="9">
         <v>0</v>
       </c>
@@ -1018,24 +1025,24 @@
       <c r="A11" s="4">
         <v>40</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9">
-        <v>1</v>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="37">
+        <v>-4</v>
       </c>
       <c r="I11" s="4">
         <v>40</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ref="J11:J13" si="1">B3-$O11-J$14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ref="K11:K13" si="2">C3-$O11-K$14</f>
@@ -1043,7 +1050,7 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" ref="L11:L13" si="3">D3-$O11-L$14</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ref="M11:M13" si="4">E3-$O11-M$14</f>
@@ -1052,8 +1059,8 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="9">
-        <v>1</v>
+      <c r="O11" s="37">
+        <v>-4</v>
       </c>
       <c r="Q11" s="4">
         <v>40</v>
@@ -1063,10 +1070,10 @@
         <v>20</v>
       </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="12">
-        <v>20</v>
-      </c>
-      <c r="V11" s="11"/>
+      <c r="U11" s="3">
+        <v>20</v>
+      </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="9">
         <v>1</v>
       </c>
@@ -1090,17 +1097,17 @@
       <c r="A12" s="4">
         <v>80</v>
       </c>
-      <c r="B12" s="3">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="B12" s="5">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>60</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
+      <c r="G12" s="37">
+        <v>-2</v>
       </c>
       <c r="I12" s="4">
         <v>80</v>
@@ -1111,22 +1118,22 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ref="N12:N13" si="5">F4-$O12-N$14</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O12" s="37">
+        <v>-2</v>
       </c>
       <c r="Q12" s="4">
         <v>80</v>
@@ -1136,8 +1143,8 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="12">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3">
         <v>60</v>
       </c>
       <c r="W12" s="9">
@@ -1165,26 +1172,26 @@
       <c r="A13" s="4">
         <v>40</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3">
         <v>40</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <v>40</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
@@ -1192,19 +1199,21 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="O13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="4">
         <v>40</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3">
         <v>40</v>
@@ -1230,37 +1239,37 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="9">
+      <c r="B14" s="37">
+        <v>4</v>
+      </c>
+      <c r="C14" s="37">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
+        <v>9</v>
+      </c>
+      <c r="F14" s="37">
         <v>2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
       </c>
       <c r="G14" s="9"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="9">
+      <c r="J14" s="37">
+        <v>4</v>
+      </c>
+      <c r="K14" s="37">
+        <v>5</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
+        <v>9</v>
+      </c>
+      <c r="N14" s="37">
         <v>2</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1</v>
-      </c>
-      <c r="M14" s="9">
-        <v>4</v>
-      </c>
-      <c r="N14" s="9">
-        <v>-1</v>
       </c>
       <c r="O14" s="9"/>
       <c r="Q14" s="10"/>
@@ -1843,7 +1852,7 @@
   <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z13" sqref="S8:Z13"/>
+      <selection activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2150,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" ref="K10:K12" si="1">B3-$Q10-K$13</f>
+        <f t="shared" ref="K10:K11" si="1">B3-$Q10-K$13</f>
         <v>1</v>
       </c>
       <c r="L10" s="13">
@@ -2549,19 +2558,19 @@
         <v>40</v>
       </c>
       <c r="J19" s="3">
-        <f>B3-$O19-J$22</f>
+        <f t="shared" ref="J19:M21" si="3">B3-$O19-J$22</f>
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <f>C3-$O19-K$22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <f>D3-$O19-L$22</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M19" s="3">
-        <f>E3-$O19-M$22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="3">
@@ -2619,19 +2628,19 @@
         <v>80</v>
       </c>
       <c r="J20" s="3">
-        <f>B4-$O20-J$22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f>C4-$O20-K$22</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L20" s="3">
-        <f>D4-$O20-L$22</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M20" s="3">
-        <f>E4-$O20-M$22</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N20" s="3">
@@ -2690,19 +2699,19 @@
         <v>40</v>
       </c>
       <c r="J21" s="3">
-        <f>B5-$O21-J$22</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <f>C5-$O21-K$22</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <f>D5-$O21-L$22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <f>E5-$O21-M$22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="e">
@@ -2884,27 +2893,27 @@
         <v>20</v>
       </c>
       <c r="K26" s="13">
-        <f>B2-$Q26-K$30</f>
+        <f t="shared" ref="K26:P29" si="4">B2-$Q26-K$30</f>
         <v>1</v>
       </c>
       <c r="L26" s="13">
-        <f>C2-$Q26-L$30</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M26" s="13">
-        <f>D2-$Q26-M$30</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N26" s="13">
-        <f>E2-$Q26-N$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26" s="13">
-        <f>F2-$Q26-O$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="13">
-        <f>G2-$Q26-P$30</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q26" s="9">
@@ -2946,27 +2955,27 @@
         <v>40</v>
       </c>
       <c r="K27" s="13">
-        <f>B3-$Q27-K$30</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L27" s="13">
-        <f>C3-$Q27-L$30</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="M27" s="13">
-        <f>D3-$Q27-M$30</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N27" s="13">
-        <f>E3-$Q27-N$30</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O27" s="13">
-        <f>F3-$Q27-O$30</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P27" s="13">
-        <f>G3-$Q27-P$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -3010,27 +3019,27 @@
         <v>60</v>
       </c>
       <c r="K28" s="13">
-        <f>B4-$Q28-K$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28" s="13">
-        <f>C4-$Q28-L$30</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M28" s="13">
-        <f>D4-$Q28-M$30</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N28" s="13">
-        <f>E4-$Q28-N$30</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O28" s="13">
-        <f>F4-$Q28-O$30</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P28" s="13">
-        <f>G4-$Q28-P$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28" s="9">
@@ -3074,27 +3083,27 @@
         <v>40</v>
       </c>
       <c r="K29" s="13">
-        <f>B5-$Q29-K$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29" s="13">
-        <f>C5-$Q29-L$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29" s="13">
-        <f>D5-$Q29-M$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29" s="13">
-        <f>E5-$Q29-N$30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="13" t="e">
-        <f>F5-$Q29-O$30</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="13">
-        <f>G5-$Q29-P$30</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q29" s="9">
@@ -3260,27 +3269,27 @@
         <v>20</v>
       </c>
       <c r="K33" s="13">
-        <f>B2-$Q33-K$37</f>
+        <f t="shared" ref="K33:P36" si="5">B2-$Q33-K$37</f>
         <v>3</v>
       </c>
       <c r="L33" s="13">
-        <f>C2-$Q33-L$37</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M33" s="13">
-        <f>D2-$Q33-M$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="13">
-        <f>E2-$Q33-N$37</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="O33" s="13">
-        <f>F2-$Q33-O$37</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="P33" s="13">
-        <f>G2-$Q33-P$37</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q33" s="9">
@@ -3324,27 +3333,27 @@
         <v>40</v>
       </c>
       <c r="K34" s="13">
-        <f>B3-$Q34-K$37</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L34" s="13">
-        <f>C3-$Q34-L$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="13">
-        <f>D3-$Q34-M$37</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N34" s="13">
-        <f>E3-$Q34-N$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O34" s="13">
-        <f>F3-$Q34-O$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P34" s="13">
-        <f>G3-$Q34-P$37</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q34" s="9">
@@ -3388,27 +3397,27 @@
         <v>60</v>
       </c>
       <c r="K35" s="13">
-        <f>B4-$Q35-K$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="13">
-        <f>C4-$Q35-L$37</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M35" s="13">
-        <f>D4-$Q35-M$37</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N35" s="13">
-        <f>E4-$Q35-N$37</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O35" s="13">
-        <f>F4-$Q35-O$37</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P35" s="13">
-        <f>G4-$Q35-P$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="9">
@@ -3452,27 +3461,27 @@
         <v>40</v>
       </c>
       <c r="K36" s="13">
-        <f>B5-$Q36-K$37</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="L36" s="13">
-        <f>C5-$Q36-L$37</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M36" s="13">
-        <f>D5-$Q36-M$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N36" s="13">
-        <f>E5-$Q36-N$37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O36" s="13" t="e">
-        <f>F5-$Q36-O$37</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="P36" s="13">
-        <f>G5-$Q36-P$37</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q36" s="9">
@@ -3618,27 +3627,27 @@
         <v>20</v>
       </c>
       <c r="K40" s="13">
-        <f>B2-$Q40-K$44</f>
+        <f t="shared" ref="K40:P43" si="6">B2-$Q40-K$44</f>
         <v>4</v>
       </c>
       <c r="L40" s="13">
-        <f>C2-$Q40-L$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M40" s="13">
-        <f>D2-$Q40-M$44</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="N40" s="13">
-        <f>E2-$Q40-N$44</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="O40" s="13">
-        <f>F2-$Q40-O$44</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P40" s="13">
-        <f>G2-$Q40-P$44</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="Q40" s="9">
@@ -3666,27 +3675,27 @@
         <v>40</v>
       </c>
       <c r="K41" s="13">
-        <f>B3-$Q41-K$44</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="L41" s="13">
-        <f>C3-$Q41-L$44</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="M41" s="13">
-        <f>D3-$Q41-M$44</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N41" s="13">
-        <f>E3-$Q41-N$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O41" s="13">
-        <f>F3-$Q41-O$44</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P41" s="13">
-        <f>G3-$Q41-P$44</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="Q41" s="9">
@@ -3712,27 +3721,27 @@
         <v>60</v>
       </c>
       <c r="K42" s="13">
-        <f>B4-$Q42-K$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L42" s="13">
-        <f>C4-$Q42-L$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M42" s="13">
-        <f>D4-$Q42-M$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N42" s="13">
-        <f>E4-$Q42-N$44</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O42" s="13">
-        <f>F4-$Q42-O$44</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P42" s="13">
-        <f>G4-$Q42-P$44</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="Q42" s="9">
@@ -3760,27 +3769,27 @@
         <v>40</v>
       </c>
       <c r="K43" s="13">
-        <f>B5-$Q43-K$44</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L43" s="13">
-        <f>C5-$Q43-L$44</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M43" s="13">
-        <f>D5-$Q43-M$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N43" s="13">
-        <f>E5-$Q43-N$44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O43" s="13" t="e">
-        <f>F5-$Q43-O$44</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="P43" s="13">
-        <f>G5-$Q43-P$44</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="Q43" s="9">
@@ -3839,7 +3848,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +4027,7 @@
         <v>250</v>
       </c>
       <c r="C7" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D7" s="2">
         <v>200</v>
@@ -4281,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="23">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="23">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="23">
         <v>0</v>
@@ -4306,13 +4315,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -4340,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -4368,10 +4377,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="25">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -4399,22 +4408,22 @@
         <v>8</v>
       </c>
       <c r="B24" s="29">
+        <v>0</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
         <v>250</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24">
@@ -4433,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="C25" s="30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D25" s="30">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G25" s="26">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25">
@@ -4470,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F26" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G26" s="28">
         <v>50</v>
@@ -4488,21 +4497,25 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>SUM(B27:G27)</f>
+        <v>1430</v>
+      </c>
       <c r="B27" s="25">
         <f>SUM(B20:B26)</f>
         <v>250</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:H27" si="1">SUM(C20:C26)</f>
-        <v>300</v>
+        <f t="shared" ref="C27:G27" si="1">SUM(C20:C26)</f>
+        <v>280</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>230</v>
+        <f>SUM(E20:E26)</f>
+        <v>250</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
@@ -4513,13 +4526,17 @@
         <v>300</v>
       </c>
       <c r="H27" s="1"/>
+      <c r="I27" s="30">
+        <f>SUM(I20:I26)</f>
+        <v>1430</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>250</v>
       </c>
       <c r="C28" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D28" s="2">
         <v>200</v>
@@ -4536,7 +4553,7 @@
       <c r="H28" s="1"/>
       <c r="J28">
         <f>SUMPRODUCT(B10:G16,B20:G26)</f>
-        <v>30550</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
